--- a/data/4/20230615-a1r-nc-session4-m_transcript.xlsx
+++ b/data/4/20230615-a1r-nc-session4-m_transcript.xlsx
@@ -1,435 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marlibosler/Desktop/Session 4 NC/06:15/excel 06:15/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4B5D67-5DA4-8C44-BEA6-4E199D2AC0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - 20230615-a1r-nc-sessi" sheetId="1" r:id="rId1"/>
-    <sheet name="proposal" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="125">
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>"2:09"</t>
-  </si>
-  <si>
-    <t>This is this is our last day. Sorry, my hair looks crazy. I just wanted to say nice to meet you guys, and you guys seem like some cool people and I hope you have a good summer.</t>
-  </si>
-  <si>
-    <t>"2:23"</t>
-  </si>
-  <si>
-    <t>Thank you so much. Rachel is nice to meet you all to, I'm glad that we're in this group. I'm enjoyed speaking with you all.</t>
-  </si>
-  <si>
-    <t>"2:39"</t>
-  </si>
-  <si>
-    <t>Well, I have the same feeling I enjoy dealing with all of you. This has been a very good group, a lot of camaraderie and I think a lot of consistency and opinions about all these various issues. Thank you.</t>
-  </si>
-  <si>
-    <t>"3:19"</t>
-  </si>
-  <si>
-    <t>Hi, my name is Kim. I'm from Kentucky. I believe this is my fourth session with you guys and it's great to be here.</t>
-  </si>
-  <si>
-    <t>"13:35"</t>
-  </si>
-  <si>
-    <t>I guess with all these, I'm pretty much supposed to cross the border wall. Now, the first to raising the limits, certainly opposed to increasing those numbers for individuals, especially since Supreme Court ruled that a corporation can be considered individual. And with super Pacs, I don't need any less less money from single individuals. And I think going out and getting money from many individuals is find by.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Politics has become corrupted by by money. And we just need to I guess spread that out. So that given politicians in so beholden to just a single or group of individuals, giving them money,</t>
-  </si>
-  <si>
-    <t>"14:23"</t>
-  </si>
-  <si>
-    <t>And you guys can hear me, right? Everyone will get and then I also do want to say that, I don't know that it's even I'm surprised they put up a constitutional amendment to try to overturn Roe versus or outside, not really wrong one. The citizens united for as difficult as it is to get a, would be to get an amendment passed the far, far better to actually Lobby the Supreme Court to overturn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Turn that or bring up another put forth another suit to try to get them to overturn that previous decision.</t>
-  </si>
-  <si>
-    <t>"14:59"</t>
-  </si>
-  <si>
-    <t>I think looking at this and jumping ahead a little bit to the next alternative that involves public support, I think individuals nowadays corporations can have more influence than is necessary or should be allowed on the voting process by the other hand. If you don't have some money be thrown into the system, you would know much about some of these candidates, even the ones that are in the Press frequently. So I think,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Heaven may be an alternative that involves both Public Funding and maybe the things that vouchers that they talked about in the next page here, which gives everybody some money to give to whomever they</t>
-  </si>
-  <si>
-    <t>"15:56"</t>
-  </si>
-  <si>
-    <t>And Jerry, I think you're on fire. I do agree with you and I think I'm not saying that or just clarify. I'm not saying that we should reduce the amount of money and necessarily in politics or in campaigns. I think there was the first day or second day. One of the</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> one of the panelists actually said, you know, it was a good thing that that money has been increasing in campaigns because that money is being used to reach out to smaller or minority groups are more people versus just trying to focus on like, you know, large, I guess. So that was the largest cities and what not. But I think it's just important to spread out where that money is coming from versus yet. Like you said, corporations are wealthy</t>
-  </si>
-  <si>
-    <t>"16:47"</t>
-  </si>
-  <si>
-    <t>I'm pretty much agreeing with him. I don't want to. I don't agree with doing the Constitutional Amendment, and I don't agree with raising the limit the number of yeah, raising the limit on contributions, excuse me. And for the closing, the loopholes kind of foreclosing Lupo's loopholes with the foreign countries because I don't know if I really trust them to have our country's</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> best in mind.</t>
-  </si>
-  <si>
-    <t>"17:20"</t>
-  </si>
-  <si>
-    <t>I do not believe that more money solves much at all, who does not get totally frustrated with all the advertisements you received in the mail for different campaigns, different people running. How many times do you get sick of all of the ads on TV? I do not believe anyone is.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Having a problem with money in their campaign by the same token. I do not believe that it would make things more transparent.</t>
-  </si>
-  <si>
-    <t>"18:05"</t>
-  </si>
-  <si>
-    <t>I agree and I don't see the point in raising the money, the limits, and also, I don't want any foreign involvement. So I'm for closing the loopholes for that.</t>
-  </si>
-  <si>
-    <t>"18:25"</t>
-  </si>
-  <si>
-    <t>Yes, I agree with the recipe for the most part, just not giving them any. I think we have, we see a lot of advertisements as it is. So I'm good on that part. But for the loopholes, I definitely agree that we should not allow foreign entities to contribute to our campaigns over here because like Rachel said, I don't think they are always going to have our best interest at in mind, and if they can just throw some money at us. And</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> And gets get us to do what they want. That's not good either, you know. So I think that we should have some limits to that or close them all.</t>
-  </si>
-  <si>
-    <t>"21:25"</t>
-  </si>
-  <si>
-    <t>I guess we are in the Public Funding by our financing do. I like the idea of of a publicly financed election or campaign I guess if that's not if that money is, you know, very tiny fraction of what they're spending now or what, they can go and they're still allowed to go out and get private funds on top of the public money that they get. It seems like it went, we're just kind of follow the Wayside if the public money wasn't really a substantial amount or enough to run a campaign with.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> And you know, I just don't know how that what good that would do I guess or the actual benefit that would be would have an A but I think disclosure is first and foremost. One of the things that we should be attacking or need to increase.</t>
-  </si>
-  <si>
-    <t>"22:25"</t>
-  </si>
-  <si>
-    <t>I am. I like the idea of getting some Public Funding in here, as a matter of fact, I know it cost a fortune and it probably invite other people to get into the running that really aren't serious about it. But, you know, as much as we can decouple funding from the big pocket, deep pocket people, I would appreciate that. I like the Democracy vouchers. That gives everybody a chance to donate their money to the candidate. They prefer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> And I also like the matching alternative where people who are willing to put their money, where their mouth is, give money, have that money matched to increase their influence, on their support, for the, their candidates.</t>
-  </si>
-  <si>
-    <t>"23:21"</t>
-  </si>
-  <si>
-    <t>I like the idea of the Democracy vouchers and matching the small contributions of like a hundred dollars, I think it would occur. It may be encourage more people to vote maybe if they didn't before, maybe they would because of the maybe the I think the Democracy vouchers, is a really cool idea. I've never even really heard of that before, but and then they help people take it more seriously.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lee. I think if they were really contributing vouchers or actual money and I'm definitely for disclosure, I think that people and companies should be disclosing certain instances.</t>
-  </si>
-  <si>
-    <t>"24:14"</t>
-  </si>
-  <si>
-    <t>I'm for the disclosures. I think that we should know where the money's coming from. I like the idea of a democracy voucher, but then again, I'm I don't know, I guess I'm kind of on the fence about using public funding for that. I think there's always there's already a lot of money in campaigns and I need person had rather that money go to schools and you know, reforming our education, which is lacking compared to other countries.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Entries. So that's something to think about.</t>
-  </si>
-  <si>
-    <t>"24:48"</t>
-  </si>
-  <si>
-    <t>I agree, I like the voucher system. However, I also agree that I don't like it coming from</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> like the matching coming from public funds because I want that money to go to kids, schools to something else and I don't know why. But the disclosure thing like I kind of don't care. I don't know why, I guess it could be manipulated. And</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I don't know. But</t>
-  </si>
-  <si>
-    <t>"25:23"</t>
-  </si>
-  <si>
-    <t>I really have to go against the group. I personally do not like the idea of the vouchers because the money comes from Public Funding, I believe again, they get out the word, the candidate knows how to get out the word, you know, they span you to death with it. I don't think taking money from the public and putting it towards the vouchers is a good idea.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tia, I certainly do believe in transparency and honesty, but I do not like the voucher idea.</t>
-  </si>
-  <si>
-    <t>"27:33"</t>
-  </si>
-  <si>
-    <t>In general, This is complicated and confusing for me. I can't see, I know what happens, but</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I don't know how they figure out. Well, I can guess, but it just seems like a lot of time and effort into cheating.</t>
-  </si>
-  <si>
-    <t>"27:58"</t>
-  </si>
-  <si>
-    <t>I feel like I'm split like I don't know if I would be for it against it because I don't know if I trust the political parties to do it. I don't know if I trust this independent redistricting commission, like, where is it coming from? How is it getting high? And then the law, I agree with the argument against it that it could not be constitutional. So I'm kind of split on that. Also,</t>
-  </si>
-  <si>
-    <t>"28:28"</t>
-  </si>
-  <si>
-    <t>Yeah, we had an interesting situation where just this last go-around in voting, this state of Michigan, where I reside, he has actually developed one of these independent entities to do the redistricting. And they made had very strict rules about the representations from the parties and so on and so forth. And they gave the people plenty of time to do it. And I was pleased because neither of the major parties were satisfied with what ended up. So, that tells me</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Me they probably did a fairly decent job of trying to give a good non-biased distribution across the parties.</t>
-  </si>
-  <si>
-    <t>"29:14"</t>
-  </si>
-  <si>
-    <t>Given given Jerry's experience. And also, I mean,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The lesser of two evils I guess if they got to get drawn somehow and better do it with a non-partisan whatever that however that would come about committee then at least yeah that at least on the surface has to say that they've got no affiliation with a group or no end goal in mind. I don't think that's how I find. That's all the states were forcing it on the states is going to be a workable thing or can be well received</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> And then I guess one question I would have, is there not some algorithm seems like it's pretty defined on how rules that need to follow for these districts?</t>
-  </si>
-  <si>
-    <t>"29:59"</t>
-  </si>
-  <si>
-    <t>I really find the redistricting confusing in my area of Kentucky. They're talking about it but I really just don't see how it helps the people in the district. It's just very very confusing and it needs to be simplified.</t>
-  </si>
-  <si>
-    <t>"32:00"</t>
-  </si>
-  <si>
-    <t>I don't agree with the fines at all, in any in any way.</t>
-  </si>
-  <si>
-    <t>"32:11"</t>
-  </si>
-  <si>
-    <t>I guess. I'm I'm of the opinion that if someone truly does not want to vote, then they should be allowed in or because I don't want them to vote then if they've got, absolutely, no interest in doing participating, sort of make it mandatory, just seems better counter counterproductive as far as making a Federal holiday. I think we have lots of federal holidays, people get it off or they don't depending on the company. So I guess, I don't know if that would be actually productive.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> T''v for the people that would probably get disenfranchised and not to vote this probably sell to work anyways. And as far as third parties, I don't really have an opinion on that. I think it would be fine to get him on the ballot.</t>
-  </si>
-  <si>
-    <t>"32:55"</t>
-  </si>
-  <si>
-    <t>I think if we call ourself a free country, then we should be free to vote or free not to vote. So I'm definitely against finding someone, if they don't want to do it, we probably don't want those people voting. Anyway, when it comes to national holiday, I think that's pretty cool. Why not? You know, it is is something that we should be proud of and then when it comes to allowing a sixteen-year-old to vote on the school board, I'm totally against that their limbic system. It has any</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Even formed yet. So I'm not really sure that I would trust a sixteen-year-old to vote in a way. That's not just for something that they want.</t>
-  </si>
-  <si>
-    <t>"33:34"</t>
-  </si>
-  <si>
-    <t>I totally think that it, it should be a national holiday to go vote. I do know that there are times that I have to go to work, prior to voting it opens, and I am racing to get their prior to. It closing. So I wouldn't mind that as far as making it mandatory. Absolutely not. This is America. And in my mind living in America means choices. So, I do not</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Believe you should be forced to vote as far as sixteen-year-olds wanting to be on school boards. I just don't see them even wanting to do that.</t>
-  </si>
-  <si>
-    <t>"34:19"</t>
-  </si>
-  <si>
-    <t>Oh, I'm really listening to her. So I agree with the making the Election Day. A national holiday because I agree with that, it would be easier. Help people that have to work. Maybe they could have off that they could vote. And I think that we should raise the election age actually from 18, I think we should raise it at 21 and I also think that I kind of think that people should take a Civics test like immigrants that want to have</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> voting rights when they come here. They have to take a Civics test to vote. So I kind of feel like people that want to vote should have to take one and I'm against making it obligation. I agree with you guys that it should be.</t>
-  </si>
-  <si>
-    <t>"35:04"</t>
-  </si>
-  <si>
-    <t>With regards to allowing 16 year olds to vote in School Board elections. At first I was - on that but then thinking about it a little bit it might be a good introduction to them to get them into understanding elections and the power of their voice. However, there are make their votes advisory not, not necessarily who will win the election but you can see how that constituency there.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Basically, the customers of the school board, how they feel about the various candidates.</t>
-  </si>
-  <si>
-    <t>"35:55"</t>
-  </si>
-  <si>
-    <t>I also wanted to add, I think that I'm for making it easier for third parties and independent candidates because I just feel, like, what's the point of having all these different parties? If only, two parties are standing a chance and some people might not even vote because they don't want to vote for those two particular parties. And then they're just not going to vote because they feel like what's the point?</t>
-  </si>
-  <si>
-    <t>And I kind of like misunderstood with the 16 year olds, I like didn't at first, I thought when I read it earlier I thought it was her regular elections and not really the local school board. So</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I kind of like what Jerry was saying, how is more of an advisory vote?</t>
-  </si>
-  <si>
-    <t>"36:43"</t>
-  </si>
-  <si>
-    <t>Also one more thing about making the Election Day, a national holiday, you know, I think that probably would go hand-in-hand with what we talked about last time about having a national election, con policy that's consistent across the states. If all the states were the same and they all agreed, hey, we're not going to have any early voting. We're not going to have any of this or that or the other thing. We're going to vote on election day. Then I would go for having</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Luckily that day via holiday. Otherwise we have so many different Alternatives. Now across all the states, people would take that day off and use it as a vacation day.</t>
-  </si>
-  <si>
-    <t>"42:13"</t>
-  </si>
-  <si>
-    <t>You guys think it's okay like sure every word it or anything.</t>
-  </si>
-  <si>
-    <t>"42:20"</t>
-  </si>
-  <si>
-    <t>I think it's great, just how it is.</t>
-  </si>
-  <si>
-    <t>"42:24"</t>
-  </si>
-  <si>
-    <t>Terry, why? I think it looks great.</t>
-  </si>
-  <si>
-    <t>"42:27"</t>
-  </si>
-  <si>
-    <t>Looks fine to me as well.</t>
-  </si>
-  <si>
-    <t>"42:57"</t>
-  </si>
-  <si>
-    <t>My question was a little more open-ended the Knicks Nick got a little bit more specific trying to probe and a little more detail what the participants think. So I'm fine with his.</t>
-  </si>
-  <si>
-    <t>"43:14"</t>
-  </si>
-  <si>
-    <t>Although I do like yours, Jerry is a good to get their opinion on, what is the actual way to go about it? But if you were to, if you weren't opposed to it, you could kind of combined. I'm just asking what would be more at the realistic, which has the most best chance of actually getting more what's an actionable or realistic best can't best process and then most realistic process.</t>
-  </si>
-  <si>
-    <t>"44:56"</t>
-  </si>
-  <si>
-    <t>But it's true, if you don't mind. I'm just going to add that to my question. So I can essentially say what what, what is there?</t>
-  </si>
-  <si>
-    <t>"45:37"</t>
-  </si>
-  <si>
-    <t>That sounds good to me. It's a lot of specificity.</t>
-  </si>
-  <si>
-    <t>"45:42"</t>
-  </si>
-  <si>
-    <t>Yes, I like it.</t>
-  </si>
-  <si>
-    <t>"45:49"</t>
-  </si>
-  <si>
-    <t>Sounds absolutely fantastic.</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>proposal</t>
-  </si>
-  <si>
-    <t>Implement RCV as an alternative method both to elected officials and representatives at all levels</t>
-  </si>
-  <si>
-    <t>Change the primary system</t>
-  </si>
-  <si>
-    <t>Use proportional representatives to elect elected officials</t>
-  </si>
-  <si>
-    <t>Change the current electoral college</t>
-  </si>
-  <si>
-    <t>Implement more accessibility to voting</t>
-  </si>
-  <si>
-    <t>Restore federal and state voting rights to citizens with felony convictions upon their release from prison</t>
-  </si>
-  <si>
-    <t>Implement voting standards that are less strict</t>
-  </si>
-  <si>
-    <t>Implement more measures to address voter fraud</t>
-  </si>
-  <si>
-    <t>Implement more fairness and transparency in the election process</t>
-  </si>
-  <si>
-    <t>Implement limits on financing individual candidates and parties</t>
-  </si>
-  <si>
-    <t>Increase in public funding and financing for campaigns</t>
-  </si>
-  <si>
-    <t>Implement a term limit for Supreme Court Justices</t>
-  </si>
-  <si>
-    <t>Increase opportunities for learning about civic education in schools</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
+      <name val="Helvetica Neue"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -505,47 +119,47 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -614,14 +228,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1696,1024 +1302,1255 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IS86"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="166.6640625" style="1" customWidth="1"/>
-    <col min="4" max="253" width="8.33203125" style="1" customWidth="1"/>
+    <col width="6.1640625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="7" customWidth="1" style="1" min="2" max="2"/>
+    <col width="166.6640625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="8.33203125" customWidth="1" style="1" min="4" max="253"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+    <row r="1" ht="20.25" customHeight="1" s="10">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>speaker</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" s="10">
+      <c r="A2" s="3" t="n">
         <v>48730</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>"2:09"</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>This is this is our last day. Sorry, my hair looks crazy. I just wanted to say nice to meet you guys, and you guys seem like some cool people and I hope you have a good summer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1" s="10">
+      <c r="A3" s="3" t="n">
         <v>48734</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>"2:23"</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Thank you so much. Rachel is nice to meet you all to, I'm glad that we're in this group. I'm enjoyed speaking with you all.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" s="10">
+      <c r="A4" s="3" t="n">
         <v>10041</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>"2:39"</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Well, I have the same feeling I enjoy dealing with all of you. This has been a very good group, a lot of camaraderie and I think a lot of consistency and opinions about all these various issues. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" s="10">
+      <c r="A5" s="3" t="n">
         <v>48731</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>"3:19"</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n"/>
+    </row>
+    <row r="6" ht="20" customHeight="1" s="10">
+      <c r="A6" s="3" t="n">
         <v>48731</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>"3:19"</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Hi, my name is Kim. I'm from Kentucky. I believe this is my fourth session with you guys and it's great to be here.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1" s="10">
+      <c r="A7" s="3" t="n">
         <v>10683</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>"13:35"</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>I guess with all these, I'm pretty much supposed to cross the border wall. Now, the first to raising the limits, certainly opposed to increasing those numbers for individuals, especially since Supreme Court ruled that a corporation can be considered individual. And with super Pacs, I don't need any less less money from single individuals. And I think going out and getting money from many individuals is find by.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" s="10">
+      <c r="A8" s="3" t="n">
         <v>10683</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>"13:35"</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Politics has become corrupted by by money. And we just need to I guess spread that out. So that given politicians in so beholden to just a single or group of individuals, giving them money,</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1" s="10">
+      <c r="A9" s="3" t="n">
         <v>10683</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>"14:23"</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>And you guys can hear me, right? Everyone will get and then I also do want to say that, I don't know that it's even I'm surprised they put up a constitutional amendment to try to overturn Roe versus or outside, not really wrong one. The citizens united for as difficult as it is to get a, would be to get an amendment passed the far, far better to actually Lobby the Supreme Court to overturn.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1" s="10">
+      <c r="A10" s="3" t="n">
         <v>10683</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>"14:23"</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Turn that or bring up another put forth another suit to try to get them to overturn that previous decision.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" s="10">
+      <c r="A11" s="3" t="n">
         <v>10041</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>"14:59"</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n"/>
+    </row>
+    <row r="12" ht="20" customHeight="1" s="10">
+      <c r="A12" s="3" t="n">
         <v>10041</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>"14:59"</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>I think looking at this and jumping ahead a little bit to the next alternative that involves public support, I think individuals nowadays corporations can have more influence than is necessary or should be allowed on the voting process by the other hand. If you don't have some money be thrown into the system, you would know much about some of these candidates, even the ones that are in the Press frequently. So I think,</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1" s="10">
+      <c r="A13" s="3" t="n">
         <v>10041</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>"14:59"</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Heaven may be an alternative that involves both Public Funding and maybe the things that vouchers that they talked about in the next page here, which gives everybody some money to give to whomever they</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1" s="10">
+      <c r="A14" s="3" t="n">
         <v>10683</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>"15:56"</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>And Jerry, I think you're on fire. I do agree with you and I think I'm not saying that or just clarify. I'm not saying that we should reduce the amount of money and necessarily in politics or in campaigns. I think there was the first day or second day. One of the</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1" s="10">
+      <c r="A15" s="3" t="n">
         <v>10683</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>"15:56"</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> one of the panelists actually said, you know, it was a good thing that that money has been increasing in campaigns because that money is being used to reach out to smaller or minority groups are more people versus just trying to focus on like, you know, large, I guess. So that was the largest cities and what not. But I think it's just important to spread out where that money is coming from versus yet. Like you said, corporations are wealthy</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1" s="10">
+      <c r="A16" s="3" t="n">
         <v>48730</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>"16:47"</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>I'm pretty much agreeing with him. I don't want to. I don't agree with doing the Constitutional Amendment, and I don't agree with raising the limit the number of yeah, raising the limit on contributions, excuse me. And for the closing, the loopholes kind of foreclosing Lupo's loopholes with the foreign countries because I don't know if I really trust them to have our country's</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1" s="10">
+      <c r="A17" s="3" t="n">
         <v>48730</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>"16:47"</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> best in mind.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1" s="10">
+      <c r="A18" s="3" t="n">
         <v>48731</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>"17:20"</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>I do not believe that more money solves much at all, who does not get totally frustrated with all the advertisements you received in the mail for different campaigns, different people running. How many times do you get sick of all of the ads on TV? I do not believe anyone is.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1" s="10">
+      <c r="A19" s="3" t="n">
         <v>48731</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>"17:20"</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Having a problem with money in their campaign by the same token. I do not believe that it would make things more transparent.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1" s="10">
+      <c r="A20" s="3" t="n">
         <v>9700</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>"18:05"</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n"/>
+    </row>
+    <row r="21" ht="20" customHeight="1" s="10">
+      <c r="A21" s="3" t="n">
         <v>9700</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>"18:05"</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>I agree and I don't see the point in raising the money, the limits, and also, I don't want any foreign involvement. So I'm for closing the loopholes for that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1" s="10">
+      <c r="A22" s="3" t="n">
         <v>48734</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>"18:25"</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>Yes, I agree with the recipe for the most part, just not giving them any. I think we have, we see a lot of advertisements as it is. So I'm good on that part. But for the loopholes, I definitely agree that we should not allow foreign entities to contribute to our campaigns over here because like Rachel said, I don't think they are always going to have our best interest at in mind, and if they can just throw some money at us. And</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1" s="10">
+      <c r="A23" s="3" t="n">
         <v>48734</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>"18:25"</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> And gets get us to do what they want. That's not good either, you know. So I think that we should have some limits to that or close them all.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="1" s="10">
+      <c r="A24" s="3" t="n">
         <v>10683</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>"21:25"</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>I guess we are in the Public Funding by our financing do. I like the idea of of a publicly financed election or campaign I guess if that's not if that money is, you know, very tiny fraction of what they're spending now or what, they can go and they're still allowed to go out and get private funds on top of the public money that they get. It seems like it went, we're just kind of follow the Wayside if the public money wasn't really a substantial amount or enough to run a campaign with.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="1" s="10">
+      <c r="A25" s="3" t="n">
         <v>10683</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>"21:25"</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> And you know, I just don't know how that what good that would do I guess or the actual benefit that would be would have an A but I think disclosure is first and foremost. One of the things that we should be attacking or need to increase.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="20" customHeight="1" s="10">
+      <c r="A26" s="3" t="n">
         <v>10041</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>"22:25"</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>I am. I like the idea of getting some Public Funding in here, as a matter of fact, I know it cost a fortune and it probably invite other people to get into the running that really aren't serious about it. But, you know, as much as we can decouple funding from the big pocket, deep pocket people, I would appreciate that. I like the Democracy vouchers. That gives everybody a chance to donate their money to the candidate. They prefer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1" s="10">
+      <c r="A27" s="3" t="n">
         <v>10041</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>"22:25"</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> And I also like the matching alternative where people who are willing to put their money, where their mouth is, give money, have that money matched to increase their influence, on their support, for the, their candidates.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1" s="10">
+      <c r="A28" s="3" t="n">
         <v>48730</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>"23:21"</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>I like the idea of the Democracy vouchers and matching the small contributions of like a hundred dollars, I think it would occur. It may be encourage more people to vote maybe if they didn't before, maybe they would because of the maybe the I think the Democracy vouchers, is a really cool idea. I've never even really heard of that before, but and then they help people take it more seriously.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1" s="10">
+      <c r="A29" s="3" t="n">
         <v>48730</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>"23:21"</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Lee. I think if they were really contributing vouchers or actual money and I'm definitely for disclosure, I think that people and companies should be disclosing certain instances.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1" s="10">
+      <c r="A30" s="3" t="n">
         <v>48734</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>"24:14"</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>I'm for the disclosures. I think that we should know where the money's coming from. I like the idea of a democracy voucher, but then again, I'm I don't know, I guess I'm kind of on the fence about using public funding for that. I think there's always there's already a lot of money in campaigns and I need person had rather that money go to schools and you know, reforming our education, which is lacking compared to other countries.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1" s="10">
+      <c r="A31" s="3" t="n">
         <v>48734</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3">
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>"24:14"</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Entries. So that's something to think about.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1" s="10">
+      <c r="A32" s="3" t="n">
         <v>9700</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>"24:48"</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>I agree, I like the voucher system. However, I also agree that I don't like it coming from</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1" s="10">
+      <c r="A33" s="3" t="n">
         <v>9700</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3">
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>"24:48"</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> like the matching coming from public funds because I want that money to go to kids, schools to something else and I don't know why. But the disclosure thing like I kind of don't care. I don't know why, I guess it could be manipulated. And</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1" s="10">
+      <c r="A34" s="3" t="n">
         <v>9700</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3">
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>"24:48"</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I don't know. But</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1" s="10">
+      <c r="A35" s="3" t="n">
         <v>48731</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="3">
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>"25:23"</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n"/>
+    </row>
+    <row r="36" ht="20" customHeight="1" s="10">
+      <c r="A36" s="3" t="n">
         <v>48731</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="5"/>
-    </row>
-    <row r="37" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3">
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>"25:23"</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n"/>
+    </row>
+    <row r="37" ht="20" customHeight="1" s="10">
+      <c r="A37" s="3" t="n">
         <v>48731</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="3">
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>"25:23"</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>I really have to go against the group. I personally do not like the idea of the vouchers because the money comes from Public Funding, I believe again, they get out the word, the candidate knows how to get out the word, you know, they span you to death with it. I don't think taking money from the public and putting it towards the vouchers is a good idea.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="20" customHeight="1" s="10">
+      <c r="A38" s="3" t="n">
         <v>48731</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="3">
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>"25:23"</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tia, I certainly do believe in transparency and honesty, but I do not like the voucher idea.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="20" customHeight="1" s="10">
+      <c r="A39" s="3" t="n">
         <v>9700</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="3">
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>"27:33"</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>In general, This is complicated and confusing for me. I can't see, I know what happens, but</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="20" customHeight="1" s="10">
+      <c r="A40" s="3" t="n">
         <v>9700</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3">
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>"27:33"</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I don't know how they figure out. Well, I can guess, but it just seems like a lot of time and effort into cheating.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="20" customHeight="1" s="10">
+      <c r="A41" s="3" t="n">
         <v>48730</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="3">
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>"27:58"</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>I feel like I'm split like I don't know if I would be for it against it because I don't know if I trust the political parties to do it. I don't know if I trust this independent redistricting commission, like, where is it coming from? How is it getting high? And then the law, I agree with the argument against it that it could not be constitutional. So I'm kind of split on that. Also,</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="20" customHeight="1" s="10">
+      <c r="A42" s="3" t="n">
         <v>10041</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="3">
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>"28:28"</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, we had an interesting situation where just this last go-around in voting, this state of Michigan, where I reside, he has actually developed one of these independent entities to do the redistricting. And they made had very strict rules about the representations from the parties and so on and so forth. And they gave the people plenty of time to do it. And I was pleased because neither of the major parties were satisfied with what ended up. So, that tells me</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="20" customHeight="1" s="10">
+      <c r="A43" s="3" t="n">
         <v>10041</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="3">
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>"28:28"</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Me they probably did a fairly decent job of trying to give a good non-biased distribution across the parties.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="20" customHeight="1" s="10">
+      <c r="A44" s="3" t="n">
         <v>10683</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="3">
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>"29:14"</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>Given given Jerry's experience. And also, I mean,</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="20" customHeight="1" s="10">
+      <c r="A45" s="3" t="n">
         <v>10683</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="3">
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>"29:14"</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The lesser of two evils I guess if they got to get drawn somehow and better do it with a non-partisan whatever that however that would come about committee then at least yeah that at least on the surface has to say that they've got no affiliation with a group or no end goal in mind. I don't think that's how I find. That's all the states were forcing it on the states is going to be a workable thing or can be well received</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="20" customHeight="1" s="10">
+      <c r="A46" s="3" t="n">
         <v>10683</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="3">
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>"29:14"</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> And then I guess one question I would have, is there not some algorithm seems like it's pretty defined on how rules that need to follow for these districts?</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="20" customHeight="1" s="10">
+      <c r="A47" s="3" t="n">
         <v>48731</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="5"/>
-    </row>
-    <row r="48" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="3">
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>"29:59"</t>
+        </is>
+      </c>
+      <c r="C47" s="5" t="n"/>
+    </row>
+    <row r="48" ht="20" customHeight="1" s="10">
+      <c r="A48" s="3" t="n">
         <v>48731</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="3">
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>"29:59"</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>I really find the redistricting confusing in my area of Kentucky. They're talking about it but I really just don't see how it helps the people in the district. It's just very very confusing and it needs to be simplified.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="20" customHeight="1" s="10">
+      <c r="A49" s="3" t="n">
         <v>9700</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="3">
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>"32:00"</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>I don't agree with the fines at all, in any in any way.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="20" customHeight="1" s="10">
+      <c r="A50" s="3" t="n">
         <v>10683</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="3">
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>"32:11"</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>I guess. I'm I'm of the opinion that if someone truly does not want to vote, then they should be allowed in or because I don't want them to vote then if they've got, absolutely, no interest in doing participating, sort of make it mandatory, just seems better counter counterproductive as far as making a Federal holiday. I think we have lots of federal holidays, people get it off or they don't depending on the company. So I guess, I don't know if that would be actually productive.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="20" customHeight="1" s="10">
+      <c r="A51" s="3" t="n">
         <v>10683</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="3">
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>"32:11"</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T''v for the people that would probably get disenfranchised and not to vote this probably sell to work anyways. And as far as third parties, I don't really have an opinion on that. I think it would be fine to get him on the ballot.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="20" customHeight="1" s="10">
+      <c r="A52" s="3" t="n">
         <v>48734</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="5"/>
-    </row>
-    <row r="53" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="3">
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>"32:55"</t>
+        </is>
+      </c>
+      <c r="C52" s="5" t="n"/>
+    </row>
+    <row r="53" ht="20" customHeight="1" s="10">
+      <c r="A53" s="3" t="n">
         <v>48734</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="3">
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>"32:55"</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>I think if we call ourself a free country, then we should be free to vote or free not to vote. So I'm definitely against finding someone, if they don't want to do it, we probably don't want those people voting. Anyway, when it comes to national holiday, I think that's pretty cool. Why not? You know, it is is something that we should be proud of and then when it comes to allowing a sixteen-year-old to vote on the school board, I'm totally against that their limbic system. It has any</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="20" customHeight="1" s="10">
+      <c r="A54" s="3" t="n">
         <v>48734</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="3">
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>"32:55"</t>
+        </is>
+      </c>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Even formed yet. So I'm not really sure that I would trust a sixteen-year-old to vote in a way. That's not just for something that they want.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="20" customHeight="1" s="10">
+      <c r="A55" s="3" t="n">
         <v>48731</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C55" s="5"/>
-    </row>
-    <row r="56" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="3">
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>"33:34"</t>
+        </is>
+      </c>
+      <c r="C55" s="5" t="n"/>
+    </row>
+    <row r="56" ht="20" customHeight="1" s="10">
+      <c r="A56" s="3" t="n">
         <v>48731</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="3">
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>"33:34"</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t>I totally think that it, it should be a national holiday to go vote. I do know that there are times that I have to go to work, prior to voting it opens, and I am racing to get their prior to. It closing. So I wouldn't mind that as far as making it mandatory. Absolutely not. This is America. And in my mind living in America means choices. So, I do not</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="20" customHeight="1" s="10">
+      <c r="A57" s="3" t="n">
         <v>48731</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="3">
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>"33:34"</t>
+        </is>
+      </c>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Believe you should be forced to vote as far as sixteen-year-olds wanting to be on school boards. I just don't see them even wanting to do that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="20" customHeight="1" s="10">
+      <c r="A58" s="3" t="n">
         <v>48730</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C58" s="5"/>
-    </row>
-    <row r="59" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="3">
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>"34:19"</t>
+        </is>
+      </c>
+      <c r="C58" s="5" t="n"/>
+    </row>
+    <row r="59" ht="20" customHeight="1" s="10">
+      <c r="A59" s="3" t="n">
         <v>48730</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="3">
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t>"34:19"</t>
+        </is>
+      </c>
+      <c r="C59" s="4" t="inlineStr">
+        <is>
+          <t>Oh, I'm really listening to her. So I agree with the making the Election Day. A national holiday because I agree with that, it would be easier. Help people that have to work. Maybe they could have off that they could vote. And I think that we should raise the election age actually from 18, I think we should raise it at 21 and I also think that I kind of think that people should take a Civics test like immigrants that want to have</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="20" customHeight="1" s="10">
+      <c r="A60" s="3" t="n">
         <v>48730</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="3">
+      <c r="B60" s="4" t="inlineStr">
+        <is>
+          <t>"34:19"</t>
+        </is>
+      </c>
+      <c r="C60" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> voting rights when they come here. They have to take a Civics test to vote. So I kind of feel like people that want to vote should have to take one and I'm against making it obligation. I agree with you guys that it should be.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="20" customHeight="1" s="10">
+      <c r="A61" s="3" t="n">
         <v>10041</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C61" s="5"/>
-    </row>
-    <row r="62" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="3">
+      <c r="B61" s="4" t="inlineStr">
+        <is>
+          <t>"35:04"</t>
+        </is>
+      </c>
+      <c r="C61" s="5" t="n"/>
+    </row>
+    <row r="62" ht="20" customHeight="1" s="10">
+      <c r="A62" s="3" t="n">
         <v>10041</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="3">
+      <c r="B62" s="4" t="inlineStr">
+        <is>
+          <t>"35:04"</t>
+        </is>
+      </c>
+      <c r="C62" s="4" t="inlineStr">
+        <is>
+          <t>With regards to allowing 16 year olds to vote in School Board elections. At first I was - on that but then thinking about it a little bit it might be a good introduction to them to get them into understanding elections and the power of their voice. However, there are make their votes advisory not, not necessarily who will win the election but you can see how that constituency there.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="20" customHeight="1" s="10">
+      <c r="A63" s="3" t="n">
         <v>10041</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="3">
+      <c r="B63" s="4" t="inlineStr">
+        <is>
+          <t>"35:04"</t>
+        </is>
+      </c>
+      <c r="C63" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Basically, the customers of the school board, how they feel about the various candidates.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="20" customHeight="1" s="10">
+      <c r="A64" s="3" t="n">
         <v>48730</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="3">
+      <c r="B64" s="4" t="inlineStr">
+        <is>
+          <t>"35:55"</t>
+        </is>
+      </c>
+      <c r="C64" s="4" t="inlineStr">
+        <is>
+          <t>I also wanted to add, I think that I'm for making it easier for third parties and independent candidates because I just feel, like, what's the point of having all these different parties? If only, two parties are standing a chance and some people might not even vote because they don't want to vote for those two particular parties. And then they're just not going to vote because they feel like what's the point?</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="20" customHeight="1" s="10">
+      <c r="A65" s="3" t="n">
         <v>48730</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="3">
+      <c r="B65" s="4" t="inlineStr">
+        <is>
+          <t>"35:55"</t>
+        </is>
+      </c>
+      <c r="C65" s="4" t="inlineStr">
+        <is>
+          <t>And I kind of like misunderstood with the 16 year olds, I like didn't at first, I thought when I read it earlier I thought it was her regular elections and not really the local school board. So</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="20" customHeight="1" s="10">
+      <c r="A66" s="3" t="n">
         <v>48730</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="3">
+      <c r="B66" s="4" t="inlineStr">
+        <is>
+          <t>"35:55"</t>
+        </is>
+      </c>
+      <c r="C66" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I kind of like what Jerry was saying, how is more of an advisory vote?</t>
+        </is>
+      </c>
+    </row>
+    <row r="67" ht="20" customHeight="1" s="10">
+      <c r="A67" s="3" t="n">
         <v>10041</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="3">
+      <c r="B67" s="4" t="inlineStr">
+        <is>
+          <t>"36:43"</t>
+        </is>
+      </c>
+      <c r="C67" s="4" t="inlineStr">
+        <is>
+          <t>Also one more thing about making the Election Day, a national holiday, you know, I think that probably would go hand-in-hand with what we talked about last time about having a national election, con policy that's consistent across the states. If all the states were the same and they all agreed, hey, we're not going to have any early voting. We're not going to have any of this or that or the other thing. We're going to vote on election day. Then I would go for having</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="20" customHeight="1" s="10">
+      <c r="A68" s="3" t="n">
         <v>10041</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="3">
+      <c r="B68" s="4" t="inlineStr">
+        <is>
+          <t>"36:43"</t>
+        </is>
+      </c>
+      <c r="C68" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Luckily that day via holiday. Otherwise we have so many different Alternatives. Now across all the states, people would take that day off and use it as a vacation day.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" ht="20" customHeight="1" s="10">
+      <c r="A69" s="3" t="n">
         <v>48730</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="3">
+      <c r="B69" s="4" t="inlineStr">
+        <is>
+          <t>"42:13"</t>
+        </is>
+      </c>
+      <c r="C69" s="4" t="inlineStr">
+        <is>
+          <t>You guys think it's okay like sure every word it or anything.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70" ht="20" customHeight="1" s="10">
+      <c r="A70" s="3" t="n">
         <v>48730</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C70" s="5"/>
-    </row>
-    <row r="71" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="3">
+      <c r="B70" s="4" t="inlineStr">
+        <is>
+          <t>"42:13"</t>
+        </is>
+      </c>
+      <c r="C70" s="5" t="n"/>
+    </row>
+    <row r="71" ht="20" customHeight="1" s="10">
+      <c r="A71" s="3" t="n">
         <v>9700</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="3">
+      <c r="B71" s="4" t="inlineStr">
+        <is>
+          <t>"42:20"</t>
+        </is>
+      </c>
+      <c r="C71" s="4" t="inlineStr">
+        <is>
+          <t>I think it's great, just how it is.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" ht="20" customHeight="1" s="10">
+      <c r="A72" s="3" t="n">
         <v>48734</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="3">
+      <c r="B72" s="4" t="inlineStr">
+        <is>
+          <t>"42:24"</t>
+        </is>
+      </c>
+      <c r="C72" s="4" t="inlineStr">
+        <is>
+          <t>Terry, why? I think it looks great.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" ht="20" customHeight="1" s="10">
+      <c r="A73" s="3" t="n">
         <v>10041</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C73" s="5"/>
-    </row>
-    <row r="74" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="3">
+      <c r="B73" s="4" t="inlineStr">
+        <is>
+          <t>"42:27"</t>
+        </is>
+      </c>
+      <c r="C73" s="5" t="n"/>
+    </row>
+    <row r="74" ht="20" customHeight="1" s="10">
+      <c r="A74" s="3" t="n">
         <v>10041</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="3">
+      <c r="B74" s="4" t="inlineStr">
+        <is>
+          <t>"42:27"</t>
+        </is>
+      </c>
+      <c r="C74" s="4" t="inlineStr">
+        <is>
+          <t>Looks fine to me as well.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75" ht="20" customHeight="1" s="10">
+      <c r="A75" s="3" t="n">
         <v>10041</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="3">
+      <c r="B75" s="4" t="inlineStr">
+        <is>
+          <t>"42:57"</t>
+        </is>
+      </c>
+      <c r="C75" s="4" t="inlineStr">
+        <is>
+          <t>My question was a little more open-ended the Knicks Nick got a little bit more specific trying to probe and a little more detail what the participants think. So I'm fine with his.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76" ht="20" customHeight="1" s="10">
+      <c r="A76" s="3" t="n">
         <v>10683</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="3">
+      <c r="B76" s="4" t="inlineStr">
+        <is>
+          <t>"43:14"</t>
+        </is>
+      </c>
+      <c r="C76" s="4" t="inlineStr">
+        <is>
+          <t>Although I do like yours, Jerry is a good to get their opinion on, what is the actual way to go about it? But if you were to, if you weren't opposed to it, you could kind of combined. I'm just asking what would be more at the realistic, which has the most best chance of actually getting more what's an actionable or realistic best can't best process and then most realistic process.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77" ht="20" customHeight="1" s="10">
+      <c r="A77" s="3" t="n">
         <v>10683</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="3">
+      <c r="B77" s="4" t="inlineStr">
+        <is>
+          <t>"44:56"</t>
+        </is>
+      </c>
+      <c r="C77" s="4" t="inlineStr">
+        <is>
+          <t>But it's true, if you don't mind. I'm just going to add that to my question. So I can essentially say what what, what is there?</t>
+        </is>
+      </c>
+    </row>
+    <row r="78" ht="20" customHeight="1" s="10">
+      <c r="A78" s="3" t="n">
         <v>10683</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C78" s="5"/>
-    </row>
-    <row r="79" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="3">
+      <c r="B78" s="4" t="inlineStr">
+        <is>
+          <t>"44:56"</t>
+        </is>
+      </c>
+      <c r="C78" s="5" t="n"/>
+    </row>
+    <row r="79" ht="20" customHeight="1" s="10">
+      <c r="A79" s="3" t="n">
         <v>10683</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C79" s="5"/>
-    </row>
-    <row r="80" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="3">
+      <c r="B79" s="4" t="inlineStr">
+        <is>
+          <t>"44:56"</t>
+        </is>
+      </c>
+      <c r="C79" s="5" t="n"/>
+    </row>
+    <row r="80" ht="20" customHeight="1" s="10">
+      <c r="A80" s="3" t="n">
         <v>10683</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C80" s="5"/>
-    </row>
-    <row r="81" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="3">
+      <c r="B80" s="4" t="inlineStr">
+        <is>
+          <t>"44:56"</t>
+        </is>
+      </c>
+      <c r="C80" s="5" t="n"/>
+    </row>
+    <row r="81" ht="20" customHeight="1" s="10">
+      <c r="A81" s="3" t="n">
         <v>10683</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C81" s="5"/>
-    </row>
-    <row r="82" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="3">
+      <c r="B81" s="4" t="inlineStr">
+        <is>
+          <t>"44:56"</t>
+        </is>
+      </c>
+      <c r="C81" s="5" t="n"/>
+    </row>
+    <row r="82" ht="20" customHeight="1" s="10">
+      <c r="A82" s="3" t="n">
         <v>10683</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C82" s="5"/>
-    </row>
-    <row r="83" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="3">
+      <c r="B82" s="4" t="inlineStr">
+        <is>
+          <t>"44:56"</t>
+        </is>
+      </c>
+      <c r="C82" s="5" t="n"/>
+    </row>
+    <row r="83" ht="20" customHeight="1" s="10">
+      <c r="A83" s="3" t="n">
         <v>10683</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C83" s="5"/>
-    </row>
-    <row r="84" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="3">
+      <c r="B83" s="4" t="inlineStr">
+        <is>
+          <t>"44:56"</t>
+        </is>
+      </c>
+      <c r="C83" s="5" t="n"/>
+    </row>
+    <row r="84" ht="20" customHeight="1" s="10">
+      <c r="A84" s="3" t="n">
         <v>10041</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="3">
+      <c r="B84" s="4" t="inlineStr">
+        <is>
+          <t>"45:37"</t>
+        </is>
+      </c>
+      <c r="C84" s="4" t="inlineStr">
+        <is>
+          <t>That sounds good to me. It's a lot of specificity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85" ht="20" customHeight="1" s="10">
+      <c r="A85" s="3" t="n">
         <v>48734</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="3">
+      <c r="B85" s="4" t="inlineStr">
+        <is>
+          <t>"45:42"</t>
+        </is>
+      </c>
+      <c r="C85" s="4" t="inlineStr">
+        <is>
+          <t>Yes, I like it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86" ht="20" customHeight="1" s="10">
+      <c r="A86" s="3" t="n">
         <v>48731</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>108</v>
+      <c r="B86" s="4" t="inlineStr">
+        <is>
+          <t>"45:49"</t>
+        </is>
+      </c>
+      <c r="C86" s="4" t="inlineStr">
+        <is>
+          <t>Sounds absolutely fantastic.</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DC21D4-E4D7-5C44-81AC-817C818F85E6}">
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A14" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>